--- a/Git/Git_memo.xlsx
+++ b/Git/Git_memo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\PublicMemo\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD46EAE-8349-4CC1-85B4-C7A66F02660F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB64A4F0-6763-40F0-B348-94CBB65361A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" tabRatio="732" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Git memo" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="521">
   <si>
     <t>■環境構築</t>
   </si>
@@ -3113,6 +3113,28 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ここで言っているmasterブランチはリモートリポジトリの「デフォルトブランチ」のことを指す。（デフォルトブランチ名は必ずmasterとは限らないし、デフォルトブランチは変更できるので）</t>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3578,7 +3600,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3857,8 +3879,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>199323</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>164</xdr:colOff>
       <xdr:row>318</xdr:row>
       <xdr:rowOff>37623</xdr:rowOff>
     </xdr:to>
@@ -26866,8 +26888,8 @@
   </sheetPr>
   <dimension ref="A1:AV439"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A340" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L372" sqref="L372"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A250" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M268" sqref="M268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15"/>
@@ -31881,7 +31903,9 @@
       <c r="J268" s="35"/>
       <c r="K268" s="36"/>
       <c r="L268" s="37"/>
-      <c r="M268" s="38"/>
+      <c r="M268" s="38" t="s">
+        <v>520</v>
+      </c>
       <c r="N268" s="38"/>
       <c r="O268" s="38"/>
       <c r="P268" s="38"/>
@@ -36056,7 +36080,7 @@
   </sheetPr>
   <dimension ref="A1:L454"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A74" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
@@ -36933,8 +36957,8 @@
   </sheetPr>
   <dimension ref="A1:AR437"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A123" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H164" sqref="H164"/>
+    <sheetView showGridLines="0" topLeftCell="A213" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AL226" sqref="AL226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12"/>

--- a/Git/Git_memo.xlsx
+++ b/Git/Git_memo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\PublicMemo\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB64A4F0-6763-40F0-B348-94CBB65361A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF2E547-4E0F-45E4-8AAC-A32B4537CBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" tabRatio="732" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Git memo" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="523">
   <si>
     <t>■環境構築</t>
   </si>
@@ -716,10 +716,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>すべての変更を含むワークツリーの内容をインデックスに追加</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>インデックスとも呼ばれる</t>
     <rPh sb="8" eb="9">
       <t>ヨ</t>
@@ -736,10 +732,6 @@
   </si>
   <si>
     <t>$ git commit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>インデックスに追加されたファイルをコミットする.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3077,16 +3069,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コマンドのヘルプは-hで見れます。（例：git add -h）</t>
-    <rPh sb="12" eb="13">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>gc</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3136,6 +3118,41 @@
     <rPh sb="86" eb="88">
       <t>ヘンコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FetchとMergeを一緒にやるのがpull</t>
+    <rPh sb="12" eb="14">
+      <t>イッショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンドのヘルプは-hで見れます。（例：git add -h） →コマンドによってはメンテされていない。。。ヘルプにないオプションが使えたりする。</t>
+    <rPh sb="12" eb="13">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべての変更を含むワークツリーの内容をインデックスに追加（「.」でも同じ）</t>
+    <rPh sb="34" eb="35">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※これはCUIよりGUIでやったほうがいいかも。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インデックスに追加されたファイル・ディレクトリをローカルリポジトリにコミットする.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3504,7 +3521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3602,6 +3619,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -25173,7 +25193,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="600074" y="64646175"/>
-            <a:ext cx="2867025" cy="313497"/>
+            <a:ext cx="3240130" cy="313497"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -25206,7 +25226,7 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>②追跡ブランチを</a:t>
+              <a:t>②追跡ブランチまで</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
@@ -25220,7 +25240,7 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>に早送りマージ</a:t>
+              <a:t>ブランチを早送りマージ</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -26888,7 +26908,7 @@
   </sheetPr>
   <dimension ref="A1:AV439"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A250" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A250" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="M268" sqref="M268"/>
     </sheetView>
   </sheetViews>
@@ -26911,7 +26931,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -26952,12 +26972,12 @@
     </row>
     <row r="24" spans="1:3">
       <c r="C24" s="14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" s="14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -26972,12 +26992,12 @@
     </row>
     <row r="30" spans="1:3">
       <c r="B30" s="14" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="C31" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:48">
@@ -27134,7 +27154,7 @@
       <c r="H37" s="47"/>
       <c r="I37" s="48"/>
       <c r="J37" s="43" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K37" s="44"/>
       <c r="L37" s="44"/>
@@ -27226,7 +27246,7 @@
       <c r="H39" s="41"/>
       <c r="I39" s="42"/>
       <c r="J39" s="49" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AP39" s="50"/>
     </row>
@@ -27240,7 +27260,7 @@
       <c r="H40" s="47"/>
       <c r="I40" s="48"/>
       <c r="J40" s="43" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K40" s="44"/>
       <c r="L40" s="44"/>
@@ -27486,7 +27506,7 @@
     </row>
     <row r="47" spans="1:48">
       <c r="B47" s="40" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C47" s="41"/>
       <c r="D47" s="41"/>
@@ -27498,7 +27518,7 @@
       <c r="J47" s="41"/>
       <c r="K47" s="42"/>
       <c r="L47" s="49" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AV47" s="50"/>
     </row>
@@ -27514,7 +27534,7 @@
       <c r="J48" s="41"/>
       <c r="K48" s="42"/>
       <c r="L48" s="49" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AV48" s="50"/>
     </row>
@@ -27622,7 +27642,7 @@
     </row>
     <row r="51" spans="2:48">
       <c r="B51" s="40" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C51" s="41"/>
       <c r="D51" s="41"/>
@@ -27634,7 +27654,7 @@
       <c r="J51" s="41"/>
       <c r="K51" s="42"/>
       <c r="L51" s="49" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AV51" s="50"/>
     </row>
@@ -27650,7 +27670,7 @@
       <c r="J52" s="41"/>
       <c r="K52" s="42"/>
       <c r="L52" s="49" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AV52" s="50"/>
     </row>
@@ -27682,7 +27702,7 @@
       <c r="J54" s="35"/>
       <c r="K54" s="36"/>
       <c r="L54" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M54" s="38"/>
       <c r="N54" s="38"/>
@@ -27735,7 +27755,7 @@
       <c r="J55" s="41"/>
       <c r="K55" s="42"/>
       <c r="L55" s="49" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AV55" s="50"/>
     </row>
@@ -27751,7 +27771,7 @@
       <c r="J56" s="41"/>
       <c r="K56" s="42"/>
       <c r="L56" s="49" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AV56" s="50"/>
     </row>
@@ -27806,7 +27826,7 @@
     </row>
     <row r="58" spans="2:48">
       <c r="B58" s="34" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
@@ -27818,7 +27838,7 @@
       <c r="J58" s="35"/>
       <c r="K58" s="36"/>
       <c r="L58" s="37" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M58" s="38"/>
       <c r="N58" s="38"/>
@@ -27859,7 +27879,7 @@
     </row>
     <row r="59" spans="2:48">
       <c r="B59" s="40" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C59" s="41"/>
       <c r="D59" s="41"/>
@@ -27871,7 +27891,7 @@
       <c r="J59" s="41"/>
       <c r="K59" s="42"/>
       <c r="L59" s="49" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AV59" s="50"/>
     </row>
@@ -28058,7 +28078,7 @@
       <c r="J64" s="35"/>
       <c r="K64" s="36"/>
       <c r="L64" s="37" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M64" s="38"/>
       <c r="N64" s="38"/>
@@ -28111,7 +28131,7 @@
       <c r="J65" s="41"/>
       <c r="K65" s="42"/>
       <c r="L65" s="49" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AV65" s="50"/>
     </row>
@@ -28127,7 +28147,7 @@
       <c r="J66" s="41"/>
       <c r="K66" s="42"/>
       <c r="L66" s="49" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AV66" s="50"/>
     </row>
@@ -28143,7 +28163,7 @@
       <c r="J67" s="41"/>
       <c r="K67" s="42"/>
       <c r="L67" s="49" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AV67" s="50"/>
     </row>
@@ -28159,7 +28179,7 @@
       <c r="J68" s="41"/>
       <c r="K68" s="42"/>
       <c r="L68" s="49" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AV68" s="50"/>
     </row>
@@ -28175,7 +28195,7 @@
       <c r="J69" s="41"/>
       <c r="K69" s="42"/>
       <c r="L69" s="49" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AV69" s="50"/>
     </row>
@@ -28577,7 +28597,7 @@
     </row>
     <row r="93" spans="2:48">
       <c r="B93" s="40" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C93" s="41"/>
       <c r="D93" s="41"/>
@@ -28617,7 +28637,7 @@
       <c r="J95" s="41"/>
       <c r="K95" s="42"/>
       <c r="L95" s="49" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AV95" s="50"/>
     </row>
@@ -28647,7 +28667,7 @@
       <c r="J97" s="41"/>
       <c r="K97" s="42"/>
       <c r="L97" s="57" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AV97" s="50"/>
     </row>
@@ -28663,7 +28683,7 @@
       <c r="J98" s="41"/>
       <c r="K98" s="42"/>
       <c r="L98" s="49" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AV98" s="50"/>
     </row>
@@ -28679,7 +28699,7 @@
       <c r="J99" s="41"/>
       <c r="K99" s="42"/>
       <c r="L99" s="49" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AV99" s="50"/>
     </row>
@@ -28695,7 +28715,7 @@
       <c r="J100" s="41"/>
       <c r="K100" s="42"/>
       <c r="L100" s="49" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AV100" s="50"/>
     </row>
@@ -28935,7 +28955,7 @@
       <c r="J106" s="41"/>
       <c r="K106" s="42"/>
       <c r="L106" s="49" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AV106" s="50"/>
     </row>
@@ -28951,7 +28971,7 @@
       <c r="J107" s="41"/>
       <c r="K107" s="42"/>
       <c r="L107" s="49" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AV107" s="50"/>
     </row>
@@ -29162,7 +29182,7 @@
     </row>
     <row r="114" spans="2:48">
       <c r="B114" s="40" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C114" s="41"/>
       <c r="D114" s="41"/>
@@ -29188,7 +29208,7 @@
       <c r="J115" s="41"/>
       <c r="K115" s="42"/>
       <c r="L115" s="57" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AV115" s="50"/>
     </row>
@@ -29204,7 +29224,7 @@
       <c r="J116" s="41"/>
       <c r="K116" s="42"/>
       <c r="L116" s="49" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AV116" s="50"/>
     </row>
@@ -29386,7 +29406,7 @@
       <c r="J123" s="41"/>
       <c r="K123" s="42"/>
       <c r="L123" s="49" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AV123" s="50"/>
     </row>
@@ -29416,7 +29436,7 @@
       <c r="J125" s="41"/>
       <c r="K125" s="42"/>
       <c r="L125" s="57" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AV125" s="50"/>
     </row>
@@ -29432,7 +29452,7 @@
       <c r="J126" s="41"/>
       <c r="K126" s="42"/>
       <c r="L126" s="49" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AV126" s="50"/>
     </row>
@@ -29462,7 +29482,7 @@
       <c r="J128" s="41"/>
       <c r="K128" s="42"/>
       <c r="L128" s="57" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AV128" s="50"/>
     </row>
@@ -29478,7 +29498,7 @@
       <c r="J129" s="41"/>
       <c r="K129" s="42"/>
       <c r="L129" s="49" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AV129" s="50"/>
     </row>
@@ -29494,7 +29514,7 @@
       <c r="J130" s="41"/>
       <c r="K130" s="42"/>
       <c r="L130" s="49" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AV130" s="50"/>
     </row>
@@ -29510,7 +29530,7 @@
       <c r="J131" s="41"/>
       <c r="K131" s="42"/>
       <c r="L131" s="49" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AV131" s="50"/>
     </row>
@@ -29527,7 +29547,7 @@
       <c r="K132" s="42"/>
       <c r="L132" s="49"/>
       <c r="M132" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AV132" s="50"/>
     </row>
@@ -29571,7 +29591,7 @@
       <c r="J135" s="41"/>
       <c r="K135" s="42"/>
       <c r="L135" s="57" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AV135" s="50"/>
     </row>
@@ -29587,7 +29607,7 @@
       <c r="J136" s="41"/>
       <c r="K136" s="42"/>
       <c r="L136" s="49" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AV136" s="50"/>
     </row>
@@ -29869,7 +29889,7 @@
       <c r="J156" s="41"/>
       <c r="K156" s="42"/>
       <c r="L156" s="49" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AV156" s="50"/>
     </row>
@@ -30261,7 +30281,7 @@
       <c r="J173" s="41"/>
       <c r="K173" s="42"/>
       <c r="L173" s="49" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AV173" s="50"/>
     </row>
@@ -30549,7 +30569,7 @@
       <c r="J193" s="41"/>
       <c r="K193" s="42"/>
       <c r="L193" s="49" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AV193" s="50"/>
     </row>
@@ -30579,7 +30599,7 @@
       <c r="J195" s="41"/>
       <c r="K195" s="42"/>
       <c r="L195" s="57" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AV195" s="50"/>
     </row>
@@ -30595,7 +30615,7 @@
       <c r="J196" s="41"/>
       <c r="K196" s="42"/>
       <c r="L196" s="49" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AV196" s="50"/>
     </row>
@@ -30611,7 +30631,7 @@
       <c r="J197" s="41"/>
       <c r="K197" s="42"/>
       <c r="L197" s="49" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AV197" s="50"/>
     </row>
@@ -30627,7 +30647,7 @@
       <c r="J198" s="41"/>
       <c r="K198" s="42"/>
       <c r="L198" s="49" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AV198" s="50"/>
     </row>
@@ -30657,7 +30677,7 @@
       <c r="J200" s="41"/>
       <c r="K200" s="42"/>
       <c r="L200" s="58" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AV200" s="50"/>
     </row>
@@ -30673,7 +30693,7 @@
       <c r="J201" s="41"/>
       <c r="K201" s="42"/>
       <c r="L201" s="49" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AV201" s="50"/>
     </row>
@@ -30689,7 +30709,7 @@
       <c r="J202" s="41"/>
       <c r="K202" s="42"/>
       <c r="L202" s="49" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AV202" s="50"/>
     </row>
@@ -30705,7 +30725,7 @@
       <c r="J203" s="41"/>
       <c r="K203" s="42"/>
       <c r="L203" s="49" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AV203" s="50"/>
     </row>
@@ -30721,7 +30741,7 @@
       <c r="J204" s="41"/>
       <c r="K204" s="42"/>
       <c r="L204" s="49" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AV204" s="50"/>
     </row>
@@ -30737,7 +30757,7 @@
       <c r="J205" s="41"/>
       <c r="K205" s="42"/>
       <c r="L205" s="49" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AV205" s="50"/>
     </row>
@@ -30753,7 +30773,7 @@
       <c r="J206" s="41"/>
       <c r="K206" s="42"/>
       <c r="L206" s="49" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AV206" s="50"/>
     </row>
@@ -30769,7 +30789,7 @@
       <c r="J207" s="41"/>
       <c r="K207" s="42"/>
       <c r="L207" s="49" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AV207" s="50"/>
     </row>
@@ -30785,7 +30805,7 @@
       <c r="J208" s="41"/>
       <c r="K208" s="42"/>
       <c r="L208" s="49" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AV208" s="50"/>
     </row>
@@ -30801,7 +30821,7 @@
       <c r="J209" s="41"/>
       <c r="K209" s="42"/>
       <c r="L209" s="49" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AV209" s="50"/>
     </row>
@@ -30817,7 +30837,7 @@
       <c r="J210" s="41"/>
       <c r="K210" s="42"/>
       <c r="L210" s="49" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AV210" s="50"/>
     </row>
@@ -30833,7 +30853,7 @@
       <c r="J211" s="41"/>
       <c r="K211" s="42"/>
       <c r="L211" s="49" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AV211" s="50"/>
     </row>
@@ -30914,7 +30934,7 @@
       <c r="J214" s="35"/>
       <c r="K214" s="36"/>
       <c r="L214" s="37" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M214" s="38"/>
       <c r="N214" s="38"/>
@@ -31135,7 +31155,7 @@
       <c r="J227" s="41"/>
       <c r="K227" s="42"/>
       <c r="L227" s="49" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AV227" s="50"/>
     </row>
@@ -31151,7 +31171,7 @@
       <c r="J228" s="41"/>
       <c r="K228" s="42"/>
       <c r="L228" s="49" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AV228" s="50"/>
     </row>
@@ -31181,7 +31201,7 @@
       <c r="J230" s="41"/>
       <c r="K230" s="42"/>
       <c r="L230" s="49" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AV230" s="50"/>
     </row>
@@ -31197,7 +31217,7 @@
       <c r="J231" s="41"/>
       <c r="K231" s="42"/>
       <c r="L231" s="49" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AV231" s="50"/>
     </row>
@@ -31227,7 +31247,7 @@
       <c r="J233" s="41"/>
       <c r="K233" s="42"/>
       <c r="L233" s="57" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AV233" s="50"/>
     </row>
@@ -31243,7 +31263,7 @@
       <c r="J234" s="41"/>
       <c r="K234" s="42"/>
       <c r="L234" s="49" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AV234" s="50"/>
     </row>
@@ -31259,7 +31279,7 @@
       <c r="J235" s="41"/>
       <c r="K235" s="42"/>
       <c r="L235" s="49" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AV235" s="50"/>
     </row>
@@ -31275,7 +31295,7 @@
       <c r="J236" s="41"/>
       <c r="K236" s="42"/>
       <c r="L236" s="49" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AV236" s="50"/>
     </row>
@@ -31291,7 +31311,7 @@
       <c r="J237" s="41"/>
       <c r="K237" s="42"/>
       <c r="L237" s="49" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AV237" s="50"/>
     </row>
@@ -31307,7 +31327,7 @@
       <c r="J238" s="41"/>
       <c r="K238" s="42"/>
       <c r="L238" s="49" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AV238" s="50"/>
     </row>
@@ -31323,7 +31343,7 @@
       <c r="J239" s="41"/>
       <c r="K239" s="42"/>
       <c r="L239" s="49" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AV239" s="50"/>
     </row>
@@ -31339,7 +31359,7 @@
       <c r="J240" s="41"/>
       <c r="K240" s="42"/>
       <c r="L240" s="49" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AV240" s="50"/>
     </row>
@@ -31355,7 +31375,7 @@
       <c r="J241" s="41"/>
       <c r="K241" s="42"/>
       <c r="L241" s="49" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AV241" s="50"/>
     </row>
@@ -31371,7 +31391,7 @@
       <c r="J242" s="41"/>
       <c r="K242" s="42"/>
       <c r="L242" s="49" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AV242" s="50"/>
     </row>
@@ -31417,7 +31437,7 @@
       <c r="J245" s="35"/>
       <c r="K245" s="36"/>
       <c r="L245" s="37" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M245" s="38"/>
       <c r="N245" s="38"/>
@@ -31468,7 +31488,7 @@
       <c r="J246" s="41"/>
       <c r="K246" s="42"/>
       <c r="L246" s="49" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AV246" s="50"/>
     </row>
@@ -31658,7 +31678,7 @@
     </row>
     <row r="260" spans="2:48">
       <c r="B260" s="34" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C260" s="35"/>
       <c r="D260" s="35"/>
@@ -31670,7 +31690,7 @@
       <c r="J260" s="35"/>
       <c r="K260" s="36"/>
       <c r="L260" s="37" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M260" s="38"/>
       <c r="N260" s="38"/>
@@ -31721,7 +31741,7 @@
       <c r="J261" s="41"/>
       <c r="K261" s="42"/>
       <c r="L261" s="49" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AV261" s="50"/>
     </row>
@@ -31741,7 +31761,7 @@
     </row>
     <row r="263" spans="2:48">
       <c r="B263" s="34" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C263" s="35"/>
       <c r="D263" s="35"/>
@@ -31753,7 +31773,7 @@
       <c r="J263" s="35"/>
       <c r="K263" s="36"/>
       <c r="L263" s="37" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M263" s="38"/>
       <c r="N263" s="38"/>
@@ -31808,7 +31828,7 @@
     </row>
     <row r="265" spans="2:48">
       <c r="B265" s="34" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C265" s="35"/>
       <c r="D265" s="35"/>
@@ -31820,7 +31840,7 @@
       <c r="J265" s="35"/>
       <c r="K265" s="36"/>
       <c r="L265" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M265" s="38"/>
       <c r="N265" s="38"/>
@@ -31871,7 +31891,7 @@
       <c r="J266" s="41"/>
       <c r="K266" s="42"/>
       <c r="L266" s="49" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AV266" s="50"/>
     </row>
@@ -31904,7 +31924,7 @@
       <c r="K268" s="36"/>
       <c r="L268" s="37"/>
       <c r="M268" s="38" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="N268" s="38"/>
       <c r="O268" s="38"/>
@@ -31963,7 +31983,7 @@
       <c r="Q269" s="38"/>
       <c r="R269" s="39"/>
       <c r="S269" s="37" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="T269" s="38"/>
       <c r="U269" s="38"/>
@@ -32065,7 +32085,7 @@
       <c r="Q271" s="38"/>
       <c r="R271" s="39"/>
       <c r="S271" s="37" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="T271" s="38"/>
       <c r="U271" s="38"/>
@@ -32112,7 +32132,7 @@
       <c r="M272" s="49"/>
       <c r="R272" s="50"/>
       <c r="S272" s="49" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AU272" s="50"/>
       <c r="AV272" s="50"/>
@@ -32179,7 +32199,7 @@
       <c r="K274" s="42"/>
       <c r="L274" s="49"/>
       <c r="M274" s="37" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="N274" s="38"/>
       <c r="O274" s="38"/>
@@ -32187,7 +32207,7 @@
       <c r="Q274" s="38"/>
       <c r="R274" s="39"/>
       <c r="S274" s="37" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="T274" s="38"/>
       <c r="U274" s="38"/>
@@ -32600,7 +32620,7 @@
       <c r="J287" s="41"/>
       <c r="K287" s="42"/>
       <c r="L287" s="49" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AV287" s="50"/>
     </row>
@@ -32708,7 +32728,7 @@
     </row>
     <row r="290" spans="2:48">
       <c r="B290" s="40" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C290" s="41"/>
       <c r="D290" s="41"/>
@@ -32734,7 +32754,7 @@
       <c r="J291" s="41"/>
       <c r="K291" s="42"/>
       <c r="L291" s="49" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AV291" s="50"/>
     </row>
@@ -32750,7 +32770,7 @@
       <c r="J292" s="41"/>
       <c r="K292" s="42"/>
       <c r="L292" s="49" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AV292" s="50"/>
     </row>
@@ -32780,7 +32800,7 @@
       <c r="J294" s="41"/>
       <c r="K294" s="42"/>
       <c r="L294" s="49" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AV294" s="50"/>
     </row>
@@ -32796,7 +32816,7 @@
       <c r="J295" s="41"/>
       <c r="K295" s="42"/>
       <c r="L295" s="49" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AV295" s="50"/>
     </row>
@@ -32826,7 +32846,7 @@
       <c r="J297" s="41"/>
       <c r="K297" s="42"/>
       <c r="L297" s="49" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AV297" s="50"/>
     </row>
@@ -32842,7 +32862,7 @@
       <c r="J298" s="41"/>
       <c r="K298" s="42"/>
       <c r="L298" s="56" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AV298" s="50"/>
     </row>
@@ -32858,7 +32878,7 @@
       <c r="J299" s="41"/>
       <c r="K299" s="42"/>
       <c r="L299" s="49" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AV299" s="50"/>
     </row>
@@ -33339,7 +33359,7 @@
       <c r="J325" s="35"/>
       <c r="K325" s="36"/>
       <c r="L325" s="37" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M325" s="38"/>
       <c r="N325" s="38"/>
@@ -33408,7 +33428,7 @@
       <c r="J327" s="41"/>
       <c r="K327" s="42"/>
       <c r="L327" s="49" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AV327" s="50"/>
     </row>
@@ -33438,7 +33458,7 @@
       <c r="J329" s="41"/>
       <c r="K329" s="42"/>
       <c r="L329" s="57" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AV329" s="50"/>
     </row>
@@ -33454,7 +33474,7 @@
       <c r="J330" s="41"/>
       <c r="K330" s="42"/>
       <c r="L330" s="49" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AV330" s="50"/>
     </row>
@@ -33470,7 +33490,7 @@
       <c r="J331" s="41"/>
       <c r="K331" s="42"/>
       <c r="L331" s="49" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AV331" s="50"/>
     </row>
@@ -33537,7 +33557,7 @@
       <c r="J333" s="35"/>
       <c r="K333" s="36"/>
       <c r="L333" s="37" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M333" s="38"/>
       <c r="N333" s="38"/>
@@ -33590,7 +33610,7 @@
       <c r="J334" s="41"/>
       <c r="K334" s="42"/>
       <c r="L334" s="49" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AV334" s="50"/>
     </row>
@@ -33620,10 +33640,10 @@
       <c r="J336" s="41"/>
       <c r="K336" s="42"/>
       <c r="L336" s="57" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="V336" s="14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AV336" s="50"/>
     </row>
@@ -33639,7 +33659,7 @@
       <c r="J337" s="41"/>
       <c r="K337" s="42"/>
       <c r="L337" s="49" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AV337" s="50"/>
     </row>
@@ -33655,7 +33675,7 @@
       <c r="J338" s="41"/>
       <c r="K338" s="42"/>
       <c r="L338" s="49" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AV338" s="50"/>
     </row>
@@ -33671,7 +33691,7 @@
       <c r="J339" s="41"/>
       <c r="K339" s="42"/>
       <c r="L339" s="49" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AV339" s="50"/>
     </row>
@@ -33726,7 +33746,7 @@
     </row>
     <row r="341" spans="2:48">
       <c r="B341" s="34" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C341" s="35"/>
       <c r="D341" s="35"/>
@@ -33738,7 +33758,7 @@
       <c r="J341" s="35"/>
       <c r="K341" s="36"/>
       <c r="L341" s="37" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M341" s="38"/>
       <c r="N341" s="38"/>
@@ -33789,7 +33809,7 @@
       <c r="J342" s="41"/>
       <c r="K342" s="42"/>
       <c r="L342" s="49" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AV342" s="50"/>
     </row>
@@ -33805,7 +33825,7 @@
       <c r="J343" s="41"/>
       <c r="K343" s="42"/>
       <c r="L343" s="49" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AV343" s="50"/>
     </row>
@@ -33821,7 +33841,7 @@
       <c r="J344" s="41"/>
       <c r="K344" s="42"/>
       <c r="L344" s="49" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AV344" s="50"/>
     </row>
@@ -34198,7 +34218,7 @@
     </row>
     <row r="369" spans="2:48">
       <c r="B369" s="34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C369" s="35"/>
       <c r="D369" s="35"/>
@@ -34210,7 +34230,7 @@
       <c r="J369" s="35"/>
       <c r="K369" s="36"/>
       <c r="L369" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M369" s="38"/>
       <c r="N369" s="38"/>
@@ -34300,7 +34320,7 @@
     </row>
     <row r="371" spans="2:48">
       <c r="B371" s="34" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C371" s="35"/>
       <c r="D371" s="35"/>
@@ -34312,7 +34332,7 @@
       <c r="J371" s="35"/>
       <c r="K371" s="36"/>
       <c r="L371" s="37" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M371" s="38"/>
       <c r="N371" s="38"/>
@@ -34363,7 +34383,7 @@
       <c r="J372" s="41"/>
       <c r="K372" s="42"/>
       <c r="L372" s="49" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AV372" s="50"/>
     </row>
@@ -34379,7 +34399,7 @@
       <c r="J373" s="41"/>
       <c r="K373" s="42"/>
       <c r="L373" s="49" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AV373" s="50"/>
     </row>
@@ -34434,7 +34454,7 @@
     </row>
     <row r="375" spans="2:48">
       <c r="B375" s="34" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C375" s="35"/>
       <c r="D375" s="35"/>
@@ -34446,7 +34466,7 @@
       <c r="J375" s="35"/>
       <c r="K375" s="36"/>
       <c r="L375" s="37" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M375" s="38"/>
       <c r="N375" s="38"/>
@@ -34487,7 +34507,7 @@
     </row>
     <row r="376" spans="2:48">
       <c r="B376" s="40" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C376" s="41"/>
       <c r="D376" s="41"/>
@@ -34499,7 +34519,7 @@
       <c r="J376" s="41"/>
       <c r="K376" s="42"/>
       <c r="L376" s="49" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AV376" s="50"/>
     </row>
@@ -34515,7 +34535,7 @@
       <c r="J377" s="41"/>
       <c r="K377" s="42"/>
       <c r="L377" s="49" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AV377" s="50"/>
     </row>
@@ -34741,7 +34761,7 @@
       <c r="J393" s="41"/>
       <c r="K393" s="42"/>
       <c r="L393" s="57" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AV393" s="50"/>
     </row>
@@ -34757,7 +34777,7 @@
       <c r="J394" s="41"/>
       <c r="K394" s="42"/>
       <c r="L394" s="49" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AV394" s="50"/>
     </row>
@@ -34773,7 +34793,7 @@
       <c r="J395" s="41"/>
       <c r="K395" s="42"/>
       <c r="L395" s="49" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AV395" s="50"/>
     </row>
@@ -34789,7 +34809,7 @@
       <c r="J396" s="41"/>
       <c r="K396" s="42"/>
       <c r="L396" s="49" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AV396" s="50"/>
     </row>
@@ -34805,7 +34825,7 @@
       <c r="J397" s="41"/>
       <c r="K397" s="42"/>
       <c r="L397" s="49" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AV397" s="50"/>
     </row>
@@ -34821,7 +34841,7 @@
       <c r="J398" s="41"/>
       <c r="K398" s="42"/>
       <c r="L398" s="49" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AV398" s="50"/>
     </row>
@@ -34837,7 +34857,7 @@
       <c r="J399" s="41"/>
       <c r="K399" s="42"/>
       <c r="L399" s="49" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AV399" s="50"/>
     </row>
@@ -34853,7 +34873,7 @@
       <c r="J400" s="41"/>
       <c r="K400" s="42"/>
       <c r="L400" s="49" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AV400" s="50"/>
     </row>
@@ -34869,7 +34889,7 @@
       <c r="J401" s="41"/>
       <c r="K401" s="42"/>
       <c r="L401" s="49" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AV401" s="50"/>
     </row>
@@ -34885,7 +34905,7 @@
       <c r="J402" s="41"/>
       <c r="K402" s="42"/>
       <c r="L402" s="49" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AV402" s="50"/>
     </row>
@@ -34901,7 +34921,7 @@
       <c r="J403" s="41"/>
       <c r="K403" s="42"/>
       <c r="L403" s="49" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AV403" s="50"/>
     </row>
@@ -34970,7 +34990,7 @@
     </row>
     <row r="406" spans="2:48">
       <c r="B406" s="34" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C406" s="35"/>
       <c r="D406" s="35"/>
@@ -34982,7 +35002,7 @@
       <c r="J406" s="35"/>
       <c r="K406" s="36"/>
       <c r="L406" s="37" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M406" s="38"/>
       <c r="N406" s="38"/>
@@ -35023,7 +35043,7 @@
     </row>
     <row r="407" spans="2:48">
       <c r="B407" s="40" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C407" s="41"/>
       <c r="D407" s="41"/>
@@ -35161,7 +35181,7 @@
       <c r="J416" s="41"/>
       <c r="K416" s="42"/>
       <c r="L416" s="49" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AV416" s="50"/>
     </row>
@@ -35205,7 +35225,7 @@
       <c r="J419" s="41"/>
       <c r="K419" s="42"/>
       <c r="L419" s="57" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AV419" s="50"/>
     </row>
@@ -35221,7 +35241,7 @@
       <c r="J420" s="41"/>
       <c r="K420" s="42"/>
       <c r="L420" s="49" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AV420" s="50"/>
     </row>
@@ -35237,7 +35257,7 @@
       <c r="J421" s="41"/>
       <c r="K421" s="42"/>
       <c r="L421" s="49" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AV421" s="50"/>
     </row>
@@ -35253,7 +35273,7 @@
       <c r="J422" s="41"/>
       <c r="K422" s="42"/>
       <c r="L422" s="49" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AV422" s="50"/>
     </row>
@@ -35269,7 +35289,7 @@
       <c r="J423" s="41"/>
       <c r="K423" s="42"/>
       <c r="L423" s="49" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AV423" s="50"/>
     </row>
@@ -35285,7 +35305,7 @@
       <c r="J424" s="41"/>
       <c r="K424" s="42"/>
       <c r="L424" s="49" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV424" s="50"/>
     </row>
@@ -35301,7 +35321,7 @@
       <c r="J425" s="41"/>
       <c r="K425" s="42"/>
       <c r="L425" s="49" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AV425" s="50"/>
     </row>
@@ -35317,7 +35337,7 @@
       <c r="J426" s="41"/>
       <c r="K426" s="42"/>
       <c r="L426" s="49" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AV426" s="50"/>
     </row>
@@ -35333,7 +35353,7 @@
       <c r="J427" s="41"/>
       <c r="K427" s="42"/>
       <c r="L427" s="49" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AV427" s="50"/>
     </row>
@@ -35349,7 +35369,7 @@
       <c r="J428" s="41"/>
       <c r="K428" s="42"/>
       <c r="L428" s="49" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AV428" s="50"/>
     </row>
@@ -35404,7 +35424,7 @@
     </row>
     <row r="430" spans="2:48">
       <c r="B430" s="34" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C430" s="35"/>
       <c r="D430" s="35"/>
@@ -35416,7 +35436,7 @@
       <c r="J430" s="35"/>
       <c r="K430" s="36"/>
       <c r="L430" s="37" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M430" s="38"/>
       <c r="N430" s="38"/>
@@ -35518,7 +35538,7 @@
       <c r="J432" s="35"/>
       <c r="K432" s="36"/>
       <c r="L432" s="37" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="M432" s="38"/>
       <c r="N432" s="38"/>
@@ -35608,7 +35628,7 @@
     </row>
     <row r="434" spans="2:48">
       <c r="B434" s="34" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C434" s="35"/>
       <c r="D434" s="35"/>
@@ -35620,7 +35640,7 @@
       <c r="J434" s="35"/>
       <c r="K434" s="36"/>
       <c r="L434" s="37" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M434" s="38"/>
       <c r="N434" s="38"/>
@@ -35724,7 +35744,7 @@
     </row>
     <row r="437" spans="2:48">
       <c r="B437" s="34" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C437" s="35"/>
       <c r="D437" s="35"/>
@@ -35736,7 +35756,7 @@
       <c r="J437" s="35"/>
       <c r="K437" s="36"/>
       <c r="L437" s="37" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M437" s="38"/>
       <c r="N437" s="38"/>
@@ -35880,183 +35900,183 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.65">
       <c r="A1" s="54" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75">
       <c r="A5" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="14" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" s="14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="18.75">
       <c r="A212" s="15" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E212" s="61" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="B213" s="14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="B215" s="14" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="B216" s="14" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="B217" s="14" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="376" spans="12:12">
       <c r="L376" s="14" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="377" spans="12:12">
       <c r="L377" s="14" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="437" spans="2:12">
       <c r="B437" s="14" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L437" s="14" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -36078,10 +36098,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L454"/>
+  <dimension ref="A1:L452"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A74" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -36099,24 +36119,26 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="17" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="60" t="s">
+        <v>521</v>
+      </c>
       <c r="C7" s="60"/>
     </row>
     <row r="8" spans="1:3">
@@ -36127,20 +36149,20 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="30">
       <c r="B9" s="18" t="s">
         <v>147</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>148</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -36152,128 +36174,128 @@
     </row>
     <row r="12" spans="1:3" ht="30">
       <c r="B12" s="18" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" s="18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="16" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30">
       <c r="B24" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30">
       <c r="B25" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -36285,10 +36307,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -36298,51 +36320,51 @@
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" ht="30">
       <c r="B31" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>153</v>
+        <v>522</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:3">
       <c r="B33" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="B34" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="B35" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="B36" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -36354,33 +36376,33 @@
     </row>
     <row r="38" spans="1:3">
       <c r="B38" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="16" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B40" s="65"/>
       <c r="C40" s="65"/>
     </row>
     <row r="41" spans="1:3">
       <c r="B41" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -36425,25 +36447,25 @@
     </row>
     <row r="48" spans="1:3">
       <c r="B48" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
     </row>
     <row r="50" spans="1:3" ht="30">
       <c r="B50" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -36455,10 +36477,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="B52" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -36470,34 +36492,34 @@
     </row>
     <row r="54" spans="1:3">
       <c r="B54" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="B55" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="B56" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="30">
       <c r="B57" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -36509,77 +36531,77 @@
     </row>
     <row r="59" spans="1:3" ht="45">
       <c r="B59" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
     </row>
     <row r="63" spans="1:3">
       <c r="B63" s="62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C63" s="62" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="B64" s="63"/>
       <c r="C64" s="63" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" s="63"/>
       <c r="C65" s="63" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="B66" s="63"/>
       <c r="C66" s="63" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="B67" s="63"/>
       <c r="C67" s="63" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="B68" s="63"/>
       <c r="C68" s="63" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="30">
       <c r="B69" s="63"/>
       <c r="C69" s="63" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -36588,65 +36610,65 @@
     </row>
     <row r="71" spans="1:3" ht="30">
       <c r="B71" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
     </row>
     <row r="73" spans="1:3">
       <c r="B73" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="B74" s="18" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="30">
       <c r="B75" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="B76" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="B77" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30">
       <c r="B78" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -36658,42 +36680,42 @@
     </row>
     <row r="80" spans="1:3">
       <c r="B80" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="B81" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="B82" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="B83" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="B84" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -36705,56 +36727,56 @@
     </row>
     <row r="86" spans="1:3">
       <c r="B86" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
     </row>
     <row r="88" spans="1:3">
       <c r="B88" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="B89" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
     </row>
     <row r="91" spans="1:3">
       <c r="B91" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="B92" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -36766,178 +36788,170 @@
     </row>
     <row r="94" spans="1:3">
       <c r="B94" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="B95" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="B96" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="B97" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="B98" s="18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="B99" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="30">
       <c r="B100" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="B101" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="B102" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="B103" s="59"/>
-      <c r="C103" s="59"/>
+      <c r="A103" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="B103" s="60"/>
+      <c r="C103" s="60"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="16" t="s">
-        <v>517</v>
-      </c>
-      <c r="B104" s="60"/>
-      <c r="C104" s="60"/>
+      <c r="B104" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="B105" s="18" t="s">
-        <v>518</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>519</v>
-      </c>
+      <c r="A105" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B105" s="60"/>
+      <c r="C105" s="60"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="B106" s="59"/>
-      <c r="C106" s="59"/>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B107" s="60"/>
-      <c r="C107" s="60"/>
+      <c r="B106" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="30">
+      <c r="B107" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="108" spans="1:3">
       <c r="B108" s="18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="30">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="B109" s="18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="B110" s="18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="B111" s="18" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="B112" s="18" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3">
-      <c r="B113" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="C113" s="18" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="114" spans="2:3">
-      <c r="B114" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="C114" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="393" spans="12:12">
-      <c r="L393" s="14" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="394" spans="12:12">
-      <c r="L394" s="14" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="454" spans="2:12">
-      <c r="B454" s="14" t="s">
+    <row r="391" spans="12:12">
+      <c r="L391" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="L454" s="14" t="s">
+    </row>
+    <row r="392" spans="12:12">
+      <c r="L392" s="14" t="s">
         <v>492</v>
+      </c>
+    </row>
+    <row r="452" spans="2:12">
+      <c r="B452" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="L452" s="14" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -36957,8 +36971,8 @@
   </sheetPr>
   <dimension ref="A1:AR437"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A213" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AL226" sqref="AL226"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W432" sqref="W432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12"/>
@@ -36968,13 +36982,13 @@
   <sheetData>
     <row r="1" spans="1:35" ht="22.15">
       <c r="A1" s="21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B1" s="21"/>
     </row>
     <row r="4" spans="1:35" ht="16.5">
       <c r="B4" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -37137,17 +37151,17 @@
     </row>
     <row r="28" spans="1:35" ht="16.5">
       <c r="B28" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="16.5">
       <c r="B29" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="2:30" ht="16.5">
       <c r="B34" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="2:30">
@@ -37338,27 +37352,27 @@
     </row>
     <row r="68" spans="2:32" ht="16.5">
       <c r="B68" s="17" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="2:32" ht="16.5">
       <c r="B69" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="2:32" ht="16.5">
       <c r="B70" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="71" spans="2:32" ht="16.5">
       <c r="B71" s="17" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="76" spans="2:32" ht="16.5">
       <c r="B76" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="2:32">
@@ -37481,7 +37495,7 @@
     </row>
     <row r="96" spans="2:32" ht="16.5">
       <c r="B96" s="16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="97" spans="2:30">
@@ -37672,15 +37686,15 @@
     </row>
     <row r="130" spans="2:32" ht="16.5">
       <c r="B130" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="136" spans="2:32" ht="16.5">
       <c r="B136" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J136" s="20" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="137" spans="2:32">
@@ -37843,22 +37857,22 @@
     </row>
     <row r="162" spans="2:32" ht="16.5">
       <c r="B162" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="163" spans="2:32" ht="16.5">
       <c r="B163" s="17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="164" spans="2:32" ht="16.5">
       <c r="B164" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="169" spans="2:32" ht="16.5">
       <c r="B169" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="170" spans="2:32">
@@ -38015,7 +38029,7 @@
     </row>
     <row r="199" spans="2:26" ht="17.25" customHeight="1">
       <c r="B199" s="16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="200" spans="2:26" ht="17.25" customHeight="1">
@@ -38370,7 +38384,7 @@
     </row>
     <row r="279" spans="2:44" ht="16.5">
       <c r="B279" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="280" spans="2:44">
@@ -38689,7 +38703,7 @@
     </row>
     <row r="342" spans="2:44" ht="16.5">
       <c r="B342" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="343" spans="2:44">
@@ -38854,15 +38868,15 @@
     </row>
     <row r="376" spans="2:31">
       <c r="B376" s="25"/>
-      <c r="L376" s="20" t="s">
-        <v>493</v>
-      </c>
       <c r="AE376" s="26"/>
     </row>
     <row r="377" spans="2:31">
       <c r="B377" s="25"/>
       <c r="L377" s="20" t="s">
-        <v>494</v>
+        <v>492</v>
+      </c>
+      <c r="AC377" s="66" t="s">
+        <v>491</v>
       </c>
       <c r="AE377" s="26"/>
     </row>
@@ -38924,7 +38938,7 @@
     </row>
     <row r="391" spans="2:30" ht="16.5">
       <c r="B391" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="392" spans="2:30">
@@ -39112,6 +39126,9 @@
     </row>
     <row r="431" spans="2:30">
       <c r="B431" s="25"/>
+      <c r="W431" s="20" t="s">
+        <v>518</v>
+      </c>
       <c r="AD431" s="26"/>
     </row>
     <row r="432" spans="2:30">
@@ -39155,7 +39172,7 @@
     </row>
     <row r="437" spans="2:30">
       <c r="B437" s="27" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C437" s="28"/>
       <c r="D437" s="28"/>
@@ -39167,7 +39184,7 @@
       <c r="J437" s="28"/>
       <c r="K437" s="28"/>
       <c r="L437" s="28" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M437" s="28"/>
       <c r="N437" s="28"/>
@@ -39214,7 +39231,7 @@
   <dimension ref="A1:M437"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L378" sqref="L378"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -39401,20 +39418,20 @@
     </row>
     <row r="376" spans="12:12">
       <c r="L376" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="377" spans="12:12">
       <c r="L377" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="437" spans="2:12">
       <c r="B437" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L437" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -39578,20 +39595,20 @@
     </row>
     <row r="376" spans="12:12">
       <c r="L376" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="377" spans="12:12">
       <c r="L377" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="437" spans="2:12">
       <c r="B437" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L437" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>

--- a/Git/Git_memo.xlsx
+++ b/Git/Git_memo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\PublicMemo\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF2E547-4E0F-45E4-8AAC-A32B4537CBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A3E365-4684-47AE-8CD6-02E2289E5DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" tabRatio="732" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Git memo" sheetId="1" r:id="rId1"/>
@@ -25910,6 +25910,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>441</xdr:row>
+      <xdr:rowOff>153458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>164042</xdr:colOff>
+      <xdr:row>475</xdr:row>
+      <xdr:rowOff>126885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B2E2531-3C41-B960-7333-0A2867324B0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="550333" y="69252041"/>
+          <a:ext cx="7593542" cy="5191011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -36100,8 +36144,8 @@
   </sheetPr>
   <dimension ref="A1:L452"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView showGridLines="0" topLeftCell="A88" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -36971,8 +37015,8 @@
   </sheetPr>
   <dimension ref="A1:AR437"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W432" sqref="W432"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A435" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AL465" sqref="AL465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12"/>

--- a/Git/Git_memo.xlsx
+++ b/Git/Git_memo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\PublicMemo\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A3E365-4684-47AE-8CD6-02E2289E5DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6AC493-F40B-4E72-9334-E75B5F50E515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="532" windowWidth="12720" windowHeight="13748" tabRatio="732" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Git memo" sheetId="1" r:id="rId1"/>
@@ -37015,7 +37015,7 @@
   </sheetPr>
   <dimension ref="A1:AR437"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A435" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A435" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AL465" sqref="AL465"/>
     </sheetView>
   </sheetViews>
@@ -39274,8 +39274,8 @@
   </sheetPr>
   <dimension ref="A1:M437"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>

--- a/Git/Git_memo.xlsx
+++ b/Git/Git_memo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\PublicMemo\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6AC493-F40B-4E72-9334-E75B5F50E515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980C8DA5-E73A-4DA7-85BE-793D09EB728F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="532" windowWidth="12720" windowHeight="13748" tabRatio="732" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" tabRatio="732" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Git memo" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="525">
   <si>
     <t>■環境構築</t>
   </si>
@@ -3153,6 +3153,14 @@
   </si>
   <si>
     <t>インデックスに追加されたファイル・ディレクトリをローカルリポジトリにコミットする.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■pull, fetch ,mergeについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www-creators.com/archives/1097</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -25954,6 +25962,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>480</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>143991</xdr:colOff>
+      <xdr:row>503</xdr:row>
+      <xdr:rowOff>94747</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D95AEFEC-938F-49E5-8D19-C101D8B29A25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="275167" y="75083459"/>
+          <a:ext cx="7848657" cy="3624289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -37013,10 +37065,10 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AR437"/>
+  <dimension ref="A1:AR479"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A435" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AL465" sqref="AL465"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A456" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L478" sqref="L478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12"/>
@@ -39249,6 +39301,14 @@
       <c r="AC437" s="28"/>
       <c r="AD437" s="29"/>
     </row>
+    <row r="479" spans="2:12" ht="16.5">
+      <c r="B479" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="L479" s="20" t="s">
+        <v>524</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -39274,7 +39334,7 @@
   </sheetPr>
   <dimension ref="A1:M437"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
